--- a/OAD Aufgabenverteilung.xlsx
+++ b/OAD Aufgabenverteilung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t xml:space="preserve">Task</t>
   </si>
@@ -190,7 +190,7 @@
   <dimension ref="C3:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -278,6 +278,9 @@
       <c r="C13" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="F13" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
